--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\jb-operations-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFED45A-483D-4E10-A963-AD74CFA3BB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A0352E-7BC0-48BB-B00B-9EAEC6AA3433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="operations" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -635,7 +635,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="1" xr:uid="{DCEA674F-D4D7-49E4-B676-2DD5AAA237F9}"/>
@@ -919,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -1935,7 +1934,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1952,7 +1951,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1969,7 +1968,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1998,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C48EC1-4E18-4AFF-881B-29DA03C62913}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -2812,7 +2811,7 @@
         <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2826,7 +2825,7 @@
         <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="C59">
         <v>5</v>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\jb-operations-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A0352E-7BC0-48BB-B00B-9EAEC6AA3433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F8D110-DCC6-45E3-95D9-982CE9E66A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="operations" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="140">
   <si>
     <t>operation_id</t>
   </si>
@@ -531,6 +531,10 @@
   </si>
   <si>
     <t>IDOL_Tsudanuma</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>distance</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -580,7 +584,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -618,12 +622,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -633,6 +648,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -916,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -928,9 +946,10 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.59765625" customWidth="1"/>
     <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -946,8 +965,11 @@
       <c r="E1" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -963,8 +985,11 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2">
+        <v>120.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -980,8 +1005,11 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2">
+        <v>701.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -997,8 +1025,11 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2">
+        <v>304.10000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1045,11 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2">
+        <v>565.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1031,8 +1065,11 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2">
+        <v>394.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -1048,8 +1085,11 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2">
+        <v>311.10000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1065,8 +1105,11 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2">
+        <v>385.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1082,8 +1125,11 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2">
+        <v>499.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1099,8 +1145,11 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1116,8 +1165,11 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2">
+        <v>445.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1133,8 +1185,11 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="2">
+        <v>260.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1150,8 +1205,11 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="2">
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1167,8 +1225,11 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="2">
+        <v>503.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1184,8 +1245,11 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="2">
+        <v>659.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1201,8 +1265,11 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="2">
+        <v>451.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1218,8 +1285,11 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="2">
+        <v>635.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1235,8 +1305,11 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1252,8 +1325,11 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="2">
+        <v>512.29999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1269,8 +1345,11 @@
       <c r="E20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="2">
+        <v>413.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1286,8 +1365,11 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="2">
+        <v>463.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -1303,8 +1385,11 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="2">
+        <v>664.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1320,8 +1405,11 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="2">
+        <v>613.70000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1337,8 +1425,11 @@
       <c r="E24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="2">
+        <v>626.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1354,8 +1445,11 @@
       <c r="E25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="2">
+        <v>430.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1371,8 +1465,11 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="2">
+        <v>401.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -1388,8 +1485,11 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="2">
+        <v>603.79999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -1405,8 +1505,11 @@
       <c r="E28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -1422,8 +1525,11 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="2">
+        <v>405.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1439,8 +1545,11 @@
       <c r="E30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="2">
+        <v>543.29999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1456,8 +1565,11 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -1473,8 +1585,11 @@
       <c r="E32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="2">
+        <v>583.20000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
@@ -1490,8 +1605,11 @@
       <c r="E33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="2">
+        <v>254.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -1507,8 +1625,11 @@
       <c r="E34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="2">
+        <v>688.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1524,8 +1645,11 @@
       <c r="E35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="2">
+        <v>370.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
@@ -1541,8 +1665,11 @@
       <c r="E36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="2">
+        <v>235.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1558,8 +1685,11 @@
       <c r="E37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="2">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>18</v>
       </c>
@@ -1575,8 +1705,11 @@
       <c r="E38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="2">
+        <v>602.70000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -1592,8 +1725,11 @@
       <c r="E39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="2">
+        <v>547.79999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -1609,8 +1745,11 @@
       <c r="E40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="2">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1626,8 +1765,11 @@
       <c r="E41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="2">
+        <v>562.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -1643,8 +1785,11 @@
       <c r="E42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="2">
+        <v>396.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -1660,8 +1805,11 @@
       <c r="E43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="2">
+        <v>311.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -1677,8 +1825,11 @@
       <c r="E44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="2">
+        <v>578.79999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1694,8 +1845,11 @@
       <c r="E45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -1711,8 +1865,11 @@
       <c r="E46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -1728,8 +1885,11 @@
       <c r="E47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="2">
+        <v>558.20000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -1745,8 +1905,11 @@
       <c r="E48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="2">
+        <v>120.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -1762,8 +1925,11 @@
       <c r="E49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="2">
+        <v>280.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -1779,8 +1945,11 @@
       <c r="E50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="2">
+        <v>292.39999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -1796,8 +1965,11 @@
       <c r="E51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -1813,8 +1985,11 @@
       <c r="E52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="2">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
@@ -1830,8 +2005,11 @@
       <c r="E53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="2">
+        <v>684.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>49</v>
       </c>
@@ -1847,8 +2025,11 @@
       <c r="E54" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="2">
+        <v>540.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>19</v>
       </c>
@@ -1864,8 +2045,11 @@
       <c r="E55" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="2">
+        <v>480.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>121</v>
       </c>
@@ -1881,8 +2065,11 @@
       <c r="E56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>123</v>
       </c>
@@ -1898,8 +2085,11 @@
       <c r="E57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
@@ -1915,8 +2105,11 @@
       <c r="E58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>125</v>
       </c>
@@ -1932,8 +2125,11 @@
       <c r="E59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>136</v>
       </c>
@@ -1949,8 +2145,11 @@
       <c r="E60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>137</v>
       </c>
@@ -1966,8 +2165,11 @@
       <c r="E61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>138</v>
       </c>
@@ -1981,6 +2183,9 @@
         <v>0</v>
       </c>
       <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1997,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C48EC1-4E18-4AFF-881B-29DA03C62913}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -2844,9 +3049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FABD43-4DC6-4D63-92FB-BF396CB7137F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -2860,10 +3063,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\jb-operations-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700900D-CC8A-4EC7-9A82-4A4AEFCC09BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0E3254-05F0-41F2-BE2E-32010A7ADBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7632" yWindow="1116" windowWidth="18432" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="operations" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="141">
   <si>
     <t>operation_id</t>
   </si>
@@ -535,6 +535,10 @@
   </si>
   <si>
     <t>distance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>max_distance_since_inspectionB</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2199,7 +2203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C48EC1-4E18-4AFF-881B-29DA03C62913}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3044,26 +3048,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FABD43-4DC6-4D63-92FB-BF396CB7137F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.2">
+    <row r="1" spans="1:3" ht="57.6">
       <c r="A1" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>7</v>
       </c>
       <c r="B2">
         <v>30</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\jb-operations-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0E3254-05F0-41F2-BE2E-32010A7ADBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAB34D1-E29D-4B90-AC52-D3D1E4E24546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7632" yWindow="1116" windowWidth="18432" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="operations" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="143">
   <si>
     <t>operation_id</t>
   </si>
@@ -534,12 +534,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>distance</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>max_distance_since_inspectionB</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>distance_km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>init_total_distance_km</t>
+  </si>
+  <si>
+    <t>init_distance_since_inspectionB_km</t>
   </si>
 </sst>
 </file>
@@ -937,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -947,7 +953,7 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.59765625" customWidth="1"/>
     <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -967,7 +973,7 @@
         <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2201,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C48EC1-4E18-4AFF-881B-29DA03C62913}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -2212,9 +2218,11 @@
     <col min="1" max="2" width="16.19921875" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="30.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2227,8 +2235,14 @@
       <c r="D1" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -2241,8 +2255,14 @@
       <c r="D2" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E2" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -2255,8 +2275,14 @@
       <c r="D3" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E3" s="1">
+        <v>3150</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,8 +2295,14 @@
       <c r="D4" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E4" s="1">
+        <v>9900</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2283,8 +2315,14 @@
       <c r="D5" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E5" s="1">
+        <v>7650</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -2297,8 +2335,14 @@
       <c r="D6" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E6" s="1">
+        <v>7650</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -2311,8 +2355,14 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E7" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F7" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -2325,8 +2375,14 @@
       <c r="D8" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E8" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -2339,8 +2395,14 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E9" s="1">
+        <v>720</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -2353,8 +2415,14 @@
       <c r="D10" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E10" s="1">
+        <v>11250</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -2367,8 +2435,14 @@
       <c r="D11" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E11" s="1">
+        <v>9450</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -2381,8 +2455,14 @@
       <c r="D12" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E12" s="1">
+        <v>6300</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -2395,8 +2475,14 @@
       <c r="D13" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E13" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -2409,8 +2495,14 @@
       <c r="D14" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E14" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -2423,8 +2515,14 @@
       <c r="D15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E15" s="1">
+        <v>5850</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -2437,8 +2535,14 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E16" s="1">
+        <v>2250</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -2451,8 +2555,14 @@
       <c r="D17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E17" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F17" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
@@ -2465,8 +2575,14 @@
       <c r="D18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E18" s="1">
+        <v>900</v>
+      </c>
+      <c r="F18" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -2479,8 +2595,14 @@
       <c r="D19" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E19" s="1">
+        <v>6300</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2493,8 +2615,14 @@
       <c r="D20" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E20" s="1">
+        <v>11250</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
@@ -2507,8 +2635,14 @@
       <c r="D21" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E21" s="1">
+        <v>8100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -2521,8 +2655,14 @@
       <c r="D22" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E22" s="1">
+        <v>8100</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2535,8 +2675,14 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E23" s="1">
+        <v>450</v>
+      </c>
+      <c r="F23" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2549,8 +2695,14 @@
       <c r="D24" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E24" s="1">
+        <v>8550</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -2563,8 +2715,14 @@
       <c r="D25" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E25" s="1">
+        <v>4950</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>85</v>
       </c>
@@ -2577,8 +2735,14 @@
       <c r="D26" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E26" s="1">
+        <v>9450</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -2591,8 +2755,14 @@
       <c r="D27" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E27" s="1">
+        <v>8550</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -2605,8 +2775,14 @@
       <c r="D28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E28" s="1">
+        <v>1800</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -2619,8 +2795,14 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E29" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F29" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -2633,8 +2815,14 @@
       <c r="D30" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E30" s="1">
+        <v>2250</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -2647,8 +2835,14 @@
       <c r="D31" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E31" s="1">
+        <v>7650</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -2661,8 +2855,14 @@
       <c r="D32" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E32" s="1">
+        <v>12150</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -2675,8 +2875,14 @@
       <c r="D33" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E33" s="1">
+        <v>2250</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
@@ -2689,8 +2895,14 @@
       <c r="D34" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E34" s="1">
+        <v>8100</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -2703,8 +2915,14 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E35" s="1">
+        <v>450</v>
+      </c>
+      <c r="F35" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
@@ -2717,8 +2935,14 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E36" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F36" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -2731,8 +2955,14 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E37" s="1">
+        <v>450</v>
+      </c>
+      <c r="F37" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
@@ -2745,8 +2975,14 @@
       <c r="D38" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E38" s="1">
+        <v>4950</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
@@ -2759,8 +2995,14 @@
       <c r="D39" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E39" s="1">
+        <v>5400</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
@@ -2773,8 +3015,14 @@
       <c r="D40" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E40" s="1">
+        <v>6300</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -2787,8 +3035,14 @@
       <c r="D41" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E41" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
@@ -2801,8 +3055,14 @@
       <c r="D42" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E42" s="1">
+        <v>8100</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
@@ -2815,8 +3075,14 @@
       <c r="D43" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E43" s="1">
+        <v>5850</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>103</v>
       </c>
@@ -2829,8 +3095,14 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E44" s="1">
+        <v>450</v>
+      </c>
+      <c r="F44" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
@@ -2843,8 +3115,14 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E45" s="1">
+        <v>450</v>
+      </c>
+      <c r="F45" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>105</v>
       </c>
@@ -2857,8 +3135,14 @@
       <c r="D46" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E46" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
@@ -2871,8 +3155,14 @@
       <c r="D47" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E47" s="1">
+        <v>6750</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>107</v>
       </c>
@@ -2885,8 +3175,14 @@
       <c r="D48" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E48" s="1">
+        <v>11250</v>
+      </c>
+      <c r="F48" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>108</v>
       </c>
@@ -2899,8 +3195,14 @@
       <c r="D49" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E49" s="1">
+        <v>2700</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>109</v>
       </c>
@@ -2913,8 +3215,14 @@
       <c r="D50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E50" s="1">
+        <v>690</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -2927,8 +3235,14 @@
       <c r="D51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E51" s="1">
+        <v>1170</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>111</v>
       </c>
@@ -2941,8 +3255,14 @@
       <c r="D52" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E52" s="1">
+        <v>5400</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
@@ -2955,8 +3275,14 @@
       <c r="D53" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E53" s="1">
+        <v>8550</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -2969,8 +3295,14 @@
       <c r="D54" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E54" s="1">
+        <v>11700</v>
+      </c>
+      <c r="F54" s="1">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
@@ -2983,8 +3315,14 @@
       <c r="D55" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E55" s="1">
+        <v>5400</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -2997,8 +3335,14 @@
       <c r="D56" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E56" s="1">
+        <v>2700</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
@@ -3011,13 +3355,19 @@
       <c r="D57" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E57" s="1">
+        <v>8100</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3025,19 +3375,31 @@
       <c r="D58" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E58" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F58" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C59" s="1">
         <v>5</v>
       </c>
       <c r="D59" s="1">
         <v>19</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8550</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5700</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FABD43-4DC6-4D63-92FB-BF396CB7137F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3064,7 +3426,7 @@
         <v>127</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\jb-operations-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAB34D1-E29D-4B90-AC52-D3D1E4E24546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700900D-CC8A-4EC7-9A82-4A4AEFCC09BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="140">
   <si>
     <t>operation_id</t>
   </si>
@@ -534,18 +534,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>max_distance_since_inspectionB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>distance_km</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>init_total_distance_km</t>
-  </si>
-  <si>
-    <t>init_distance_since_inspectionB_km</t>
+    <t>distance</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -943,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -953,7 +943,7 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.59765625" customWidth="1"/>
     <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -973,7 +963,7 @@
         <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2207,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C48EC1-4E18-4AFF-881B-29DA03C62913}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -2218,11 +2208,9 @@
     <col min="1" max="2" width="16.19921875" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="30.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2235,14 +2223,8 @@
       <c r="D1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -2255,14 +2237,8 @@
       <c r="D2" s="1">
         <v>28</v>
       </c>
-      <c r="E2" s="1">
-        <v>12600</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -2275,14 +2251,8 @@
       <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
-        <v>3150</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
@@ -2295,14 +2265,8 @@
       <c r="D4" s="1">
         <v>22</v>
       </c>
-      <c r="E4" s="1">
-        <v>9900</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2315,14 +2279,8 @@
       <c r="D5" s="1">
         <v>17</v>
       </c>
-      <c r="E5" s="1">
-        <v>7650</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -2335,14 +2293,8 @@
       <c r="D6" s="1">
         <v>17</v>
       </c>
-      <c r="E6" s="1">
-        <v>7650</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -2355,14 +2307,8 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>1350</v>
-      </c>
-      <c r="F7" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -2375,14 +2321,8 @@
       <c r="D8" s="1">
         <v>28</v>
       </c>
-      <c r="E8" s="1">
-        <v>12600</v>
-      </c>
-      <c r="F8" s="1">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -2395,14 +2335,8 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <v>720</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -2415,14 +2349,8 @@
       <c r="D10" s="1">
         <v>25</v>
       </c>
-      <c r="E10" s="1">
-        <v>11250</v>
-      </c>
-      <c r="F10" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -2435,14 +2363,8 @@
       <c r="D11" s="1">
         <v>21</v>
       </c>
-      <c r="E11" s="1">
-        <v>9450</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -2455,14 +2377,8 @@
       <c r="D12" s="1">
         <v>14</v>
       </c>
-      <c r="E12" s="1">
-        <v>6300</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -2475,14 +2391,8 @@
       <c r="D13" s="1">
         <v>28</v>
       </c>
-      <c r="E13" s="1">
-        <v>12600</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -2495,14 +2405,8 @@
       <c r="D14" s="1">
         <v>28</v>
       </c>
-      <c r="E14" s="1">
-        <v>12600</v>
-      </c>
-      <c r="F14" s="1">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -2515,14 +2419,8 @@
       <c r="D15" s="1">
         <v>13</v>
       </c>
-      <c r="E15" s="1">
-        <v>5850</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -2535,14 +2433,8 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="1">
-        <v>2250</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -2555,14 +2447,8 @@
       <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
-        <v>1350</v>
-      </c>
-      <c r="F17" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
@@ -2575,14 +2461,8 @@
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1">
-        <v>900</v>
-      </c>
-      <c r="F18" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:4" ht="18.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -2595,14 +2475,8 @@
       <c r="D19" s="1">
         <v>14</v>
       </c>
-      <c r="E19" s="1">
-        <v>6300</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2615,14 +2489,8 @@
       <c r="D20" s="1">
         <v>25</v>
       </c>
-      <c r="E20" s="1">
-        <v>11250</v>
-      </c>
-      <c r="F20" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
@@ -2635,14 +2503,8 @@
       <c r="D21" s="1">
         <v>18</v>
       </c>
-      <c r="E21" s="1">
-        <v>8100</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:4" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -2655,14 +2517,8 @@
       <c r="D22" s="1">
         <v>18</v>
       </c>
-      <c r="E22" s="1">
-        <v>8100</v>
-      </c>
-      <c r="F22" s="1">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:4" ht="18.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2675,14 +2531,8 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1">
-        <v>450</v>
-      </c>
-      <c r="F23" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:4" ht="18.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2695,14 +2545,8 @@
       <c r="D24" s="1">
         <v>19</v>
       </c>
-      <c r="E24" s="1">
-        <v>8550</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -2715,14 +2559,8 @@
       <c r="D25" s="1">
         <v>11</v>
       </c>
-      <c r="E25" s="1">
-        <v>4950</v>
-      </c>
-      <c r="F25" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:4" ht="18.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>85</v>
       </c>
@@ -2735,14 +2573,8 @@
       <c r="D26" s="1">
         <v>21</v>
       </c>
-      <c r="E26" s="1">
-        <v>9450</v>
-      </c>
-      <c r="F26" s="1">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:4" ht="18.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -2755,14 +2587,8 @@
       <c r="D27" s="1">
         <v>19</v>
       </c>
-      <c r="E27" s="1">
-        <v>8550</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:4" ht="18.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -2775,14 +2601,8 @@
       <c r="D28" s="1">
         <v>4</v>
       </c>
-      <c r="E28" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -2795,14 +2615,8 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="1">
-        <v>1350</v>
-      </c>
-      <c r="F29" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -2815,14 +2629,8 @@
       <c r="D30" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="1">
-        <v>2250</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:4" ht="18.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -2835,14 +2643,8 @@
       <c r="D31" s="1">
         <v>17</v>
       </c>
-      <c r="E31" s="1">
-        <v>7650</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:4" ht="18.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -2855,14 +2657,8 @@
       <c r="D32" s="1">
         <v>27</v>
       </c>
-      <c r="E32" s="1">
-        <v>12150</v>
-      </c>
-      <c r="F32" s="1">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:4" ht="18.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -2875,14 +2671,8 @@
       <c r="D33" s="1">
         <v>5</v>
       </c>
-      <c r="E33" s="1">
-        <v>2250</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
@@ -2895,14 +2685,8 @@
       <c r="D34" s="1">
         <v>18</v>
       </c>
-      <c r="E34" s="1">
-        <v>8100</v>
-      </c>
-      <c r="F34" s="1">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -2915,14 +2699,8 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1">
-        <v>450</v>
-      </c>
-      <c r="F35" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:4" ht="18.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
@@ -2935,14 +2713,8 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="1">
-        <v>1350</v>
-      </c>
-      <c r="F36" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:4" ht="18.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -2955,14 +2727,8 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="1">
-        <v>450</v>
-      </c>
-      <c r="F37" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
@@ -2975,14 +2741,8 @@
       <c r="D38" s="1">
         <v>11</v>
       </c>
-      <c r="E38" s="1">
-        <v>4950</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
@@ -2995,14 +2755,8 @@
       <c r="D39" s="1">
         <v>12</v>
       </c>
-      <c r="E39" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F39" s="1">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
@@ -3015,14 +2769,8 @@
       <c r="D40" s="1">
         <v>14</v>
       </c>
-      <c r="E40" s="1">
-        <v>6300</v>
-      </c>
-      <c r="F40" s="1">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -3035,14 +2783,8 @@
       <c r="D41" s="1">
         <v>16</v>
       </c>
-      <c r="E41" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F41" s="1">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
@@ -3055,14 +2797,8 @@
       <c r="D42" s="1">
         <v>18</v>
       </c>
-      <c r="E42" s="1">
-        <v>8100</v>
-      </c>
-      <c r="F42" s="1">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
@@ -3075,14 +2811,8 @@
       <c r="D43" s="1">
         <v>13</v>
       </c>
-      <c r="E43" s="1">
-        <v>5850</v>
-      </c>
-      <c r="F43" s="1">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>103</v>
       </c>
@@ -3095,14 +2825,8 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E44" s="1">
-        <v>450</v>
-      </c>
-      <c r="F44" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
@@ -3115,14 +2839,8 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="E45" s="1">
-        <v>450</v>
-      </c>
-      <c r="F45" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>105</v>
       </c>
@@ -3135,14 +2853,8 @@
       <c r="D46" s="1">
         <v>8</v>
       </c>
-      <c r="E46" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:4" ht="18.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
@@ -3155,14 +2867,8 @@
       <c r="D47" s="1">
         <v>15</v>
       </c>
-      <c r="E47" s="1">
-        <v>6750</v>
-      </c>
-      <c r="F47" s="1">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:4" ht="18.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>107</v>
       </c>
@@ -3175,14 +2881,8 @@
       <c r="D48" s="1">
         <v>25</v>
       </c>
-      <c r="E48" s="1">
-        <v>11250</v>
-      </c>
-      <c r="F48" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:4" ht="18.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>108</v>
       </c>
@@ -3195,14 +2895,8 @@
       <c r="D49" s="1">
         <v>6</v>
       </c>
-      <c r="E49" s="1">
-        <v>2700</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:4" ht="18.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>109</v>
       </c>
@@ -3215,14 +2909,8 @@
       <c r="D50" s="1">
         <v>0</v>
       </c>
-      <c r="E50" s="1">
-        <v>690</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:4" ht="18.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -3235,14 +2923,8 @@
       <c r="D51" s="1">
         <v>0</v>
       </c>
-      <c r="E51" s="1">
-        <v>1170</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:4" ht="18.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>111</v>
       </c>
@@ -3255,14 +2937,8 @@
       <c r="D52" s="1">
         <v>12</v>
       </c>
-      <c r="E52" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F52" s="1">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:4" ht="18.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
@@ -3275,14 +2951,8 @@
       <c r="D53" s="1">
         <v>19</v>
       </c>
-      <c r="E53" s="1">
-        <v>8550</v>
-      </c>
-      <c r="F53" s="1">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:4" ht="18.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -3295,14 +2965,8 @@
       <c r="D54" s="1">
         <v>26</v>
       </c>
-      <c r="E54" s="1">
-        <v>11700</v>
-      </c>
-      <c r="F54" s="1">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:4" ht="18.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
@@ -3315,14 +2979,8 @@
       <c r="D55" s="1">
         <v>12</v>
       </c>
-      <c r="E55" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:4" ht="18.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -3335,14 +2993,8 @@
       <c r="D56" s="1">
         <v>6</v>
       </c>
-      <c r="E56" s="1">
-        <v>2700</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="57" spans="1:4" ht="18.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
@@ -3355,19 +3007,13 @@
       <c r="D57" s="1">
         <v>18</v>
       </c>
-      <c r="E57" s="1">
-        <v>8100</v>
-      </c>
-      <c r="F57" s="1">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="58" spans="1:4" ht="18.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3375,31 +3021,19 @@
       <c r="D58" s="1">
         <v>3</v>
       </c>
-      <c r="E58" s="1">
-        <v>1350</v>
-      </c>
-      <c r="F58" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18.75" customHeight="1">
+    </row>
+    <row r="59" spans="1:4" ht="18.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1">
         <v>5</v>
       </c>
       <c r="D59" s="1">
         <v>19</v>
-      </c>
-      <c r="E59" s="1">
-        <v>8550</v>
-      </c>
-      <c r="F59" s="1">
-        <v>5700</v>
       </c>
     </row>
   </sheetData>
@@ -3410,34 +3044,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FABD43-4DC6-4D63-92FB-BF396CB7137F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="57.6">
+    <row r="1" spans="1:2" ht="43.2">
       <c r="A1" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>7</v>
       </c>
       <c r="B2">
         <v>30</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\jb-operations-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700900D-CC8A-4EC7-9A82-4A4AEFCC09BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAB34D1-E29D-4B90-AC52-D3D1E4E24546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="143">
   <si>
     <t>operation_id</t>
   </si>
@@ -534,8 +534,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>distance</t>
-    <phoneticPr fontId="2"/>
+    <t>max_distance_since_inspectionB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>distance_km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>init_total_distance_km</t>
+  </si>
+  <si>
+    <t>init_distance_since_inspectionB_km</t>
   </si>
 </sst>
 </file>
@@ -933,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -943,7 +953,7 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.59765625" customWidth="1"/>
     <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -963,7 +973,7 @@
         <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2197,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C48EC1-4E18-4AFF-881B-29DA03C62913}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -2208,9 +2218,11 @@
     <col min="1" max="2" width="16.19921875" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="30.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2223,8 +2235,14 @@
       <c r="D1" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -2237,8 +2255,14 @@
       <c r="D2" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E2" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -2251,8 +2275,14 @@
       <c r="D3" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E3" s="1">
+        <v>3150</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
@@ -2265,8 +2295,14 @@
       <c r="D4" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E4" s="1">
+        <v>9900</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2279,8 +2315,14 @@
       <c r="D5" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E5" s="1">
+        <v>7650</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -2293,8 +2335,14 @@
       <c r="D6" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E6" s="1">
+        <v>7650</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -2307,8 +2355,14 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E7" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F7" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -2321,8 +2375,14 @@
       <c r="D8" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E8" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -2335,8 +2395,14 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E9" s="1">
+        <v>720</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -2349,8 +2415,14 @@
       <c r="D10" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E10" s="1">
+        <v>11250</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -2363,8 +2435,14 @@
       <c r="D11" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E11" s="1">
+        <v>9450</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -2377,8 +2455,14 @@
       <c r="D12" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E12" s="1">
+        <v>6300</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -2391,8 +2475,14 @@
       <c r="D13" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E13" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -2405,8 +2495,14 @@
       <c r="D14" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E14" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -2419,8 +2515,14 @@
       <c r="D15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E15" s="1">
+        <v>5850</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -2433,8 +2535,14 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E16" s="1">
+        <v>2250</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -2447,8 +2555,14 @@
       <c r="D17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E17" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F17" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
@@ -2461,8 +2575,14 @@
       <c r="D18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E18" s="1">
+        <v>900</v>
+      </c>
+      <c r="F18" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -2475,8 +2595,14 @@
       <c r="D19" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E19" s="1">
+        <v>6300</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2489,8 +2615,14 @@
       <c r="D20" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E20" s="1">
+        <v>11250</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
@@ -2503,8 +2635,14 @@
       <c r="D21" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E21" s="1">
+        <v>8100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -2517,8 +2655,14 @@
       <c r="D22" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E22" s="1">
+        <v>8100</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2531,8 +2675,14 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E23" s="1">
+        <v>450</v>
+      </c>
+      <c r="F23" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2545,8 +2695,14 @@
       <c r="D24" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E24" s="1">
+        <v>8550</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -2559,8 +2715,14 @@
       <c r="D25" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E25" s="1">
+        <v>4950</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>85</v>
       </c>
@@ -2573,8 +2735,14 @@
       <c r="D26" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E26" s="1">
+        <v>9450</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -2587,8 +2755,14 @@
       <c r="D27" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E27" s="1">
+        <v>8550</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -2601,8 +2775,14 @@
       <c r="D28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E28" s="1">
+        <v>1800</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -2615,8 +2795,14 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E29" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F29" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -2629,8 +2815,14 @@
       <c r="D30" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E30" s="1">
+        <v>2250</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -2643,8 +2835,14 @@
       <c r="D31" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E31" s="1">
+        <v>7650</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -2657,8 +2855,14 @@
       <c r="D32" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E32" s="1">
+        <v>12150</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -2671,8 +2875,14 @@
       <c r="D33" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E33" s="1">
+        <v>2250</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
@@ -2685,8 +2895,14 @@
       <c r="D34" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E34" s="1">
+        <v>8100</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -2699,8 +2915,14 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E35" s="1">
+        <v>450</v>
+      </c>
+      <c r="F35" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
@@ -2713,8 +2935,14 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E36" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F36" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -2727,8 +2955,14 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E37" s="1">
+        <v>450</v>
+      </c>
+      <c r="F37" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
@@ -2741,8 +2975,14 @@
       <c r="D38" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E38" s="1">
+        <v>4950</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
@@ -2755,8 +2995,14 @@
       <c r="D39" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E39" s="1">
+        <v>5400</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
@@ -2769,8 +3015,14 @@
       <c r="D40" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E40" s="1">
+        <v>6300</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -2783,8 +3035,14 @@
       <c r="D41" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E41" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
@@ -2797,8 +3055,14 @@
       <c r="D42" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E42" s="1">
+        <v>8100</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
@@ -2811,8 +3075,14 @@
       <c r="D43" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E43" s="1">
+        <v>5850</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>103</v>
       </c>
@@ -2825,8 +3095,14 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E44" s="1">
+        <v>450</v>
+      </c>
+      <c r="F44" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
@@ -2839,8 +3115,14 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E45" s="1">
+        <v>450</v>
+      </c>
+      <c r="F45" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>105</v>
       </c>
@@ -2853,8 +3135,14 @@
       <c r="D46" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E46" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
@@ -2867,8 +3155,14 @@
       <c r="D47" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E47" s="1">
+        <v>6750</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>107</v>
       </c>
@@ -2881,8 +3175,14 @@
       <c r="D48" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E48" s="1">
+        <v>11250</v>
+      </c>
+      <c r="F48" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>108</v>
       </c>
@@ -2895,8 +3195,14 @@
       <c r="D49" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E49" s="1">
+        <v>2700</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>109</v>
       </c>
@@ -2909,8 +3215,14 @@
       <c r="D50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E50" s="1">
+        <v>690</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -2923,8 +3235,14 @@
       <c r="D51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E51" s="1">
+        <v>1170</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>111</v>
       </c>
@@ -2937,8 +3255,14 @@
       <c r="D52" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E52" s="1">
+        <v>5400</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
@@ -2951,8 +3275,14 @@
       <c r="D53" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E53" s="1">
+        <v>8550</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -2965,8 +3295,14 @@
       <c r="D54" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E54" s="1">
+        <v>11700</v>
+      </c>
+      <c r="F54" s="1">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
@@ -2979,8 +3315,14 @@
       <c r="D55" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E55" s="1">
+        <v>5400</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -2993,8 +3335,14 @@
       <c r="D56" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E56" s="1">
+        <v>2700</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
@@ -3007,13 +3355,19 @@
       <c r="D57" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E57" s="1">
+        <v>8100</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3021,19 +3375,31 @@
       <c r="D58" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" customHeight="1">
+      <c r="E58" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F58" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C59" s="1">
         <v>5</v>
       </c>
       <c r="D59" s="1">
         <v>19</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8550</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5700</v>
       </c>
     </row>
   </sheetData>
@@ -3044,26 +3410,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FABD43-4DC6-4D63-92FB-BF396CB7137F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.2">
+    <row r="1" spans="1:3" ht="57.6">
       <c r="A1" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>7</v>
       </c>
       <c r="B2">
         <v>30</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\jb-operations-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAB34D1-E29D-4B90-AC52-D3D1E4E24546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE964A6-34BC-4925-AE2F-990FD9FA8FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2209,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C48EC1-4E18-4AFF-881B-29DA03C62913}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -2250,16 +2250,16 @@
         <v>57</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>8400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
@@ -2276,10 +2276,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="1">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>2100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
@@ -2296,10 +2296,10 @@
         <v>22</v>
       </c>
       <c r="E4" s="1">
-        <v>9900</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>6600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
@@ -2316,10 +2316,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1">
-        <v>7650</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>5100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
@@ -2336,10 +2336,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="1">
-        <v>7650</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>5100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
@@ -2356,10 +2356,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
@@ -2376,10 +2376,10 @@
         <v>28</v>
       </c>
       <c r="E8" s="1">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>8400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2413,13 +2413,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
-        <v>11250</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
@@ -2430,16 +2430,16 @@
         <v>58</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>21</v>
       </c>
       <c r="E11" s="1">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1">
@@ -2456,10 +2456,10 @@
         <v>14</v>
       </c>
       <c r="E12" s="1">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>4200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1">
@@ -2470,16 +2470,16 @@
         <v>128</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>8400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1">
@@ -2493,13 +2493,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>8400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1">
@@ -2516,10 +2516,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="1">
-        <v>5850</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>3900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
@@ -2536,10 +2536,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
@@ -2556,10 +2556,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
@@ -2576,10 +2576,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
@@ -2596,10 +2596,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="1">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>4200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1">
@@ -2616,10 +2616,10 @@
         <v>25</v>
       </c>
       <c r="E20" s="1">
-        <v>11250</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1">
@@ -2636,10 +2636,10 @@
         <v>18</v>
       </c>
       <c r="E21" s="1">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1">
@@ -2656,10 +2656,10 @@
         <v>18</v>
       </c>
       <c r="E22" s="1">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1">
@@ -2676,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1">
@@ -2696,10 +2696,10 @@
         <v>19</v>
       </c>
       <c r="E24" s="1">
-        <v>8550</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>5700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1">
@@ -2716,10 +2716,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="1">
-        <v>4950</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>3300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1">
@@ -2736,10 +2736,10 @@
         <v>21</v>
       </c>
       <c r="E26" s="1">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1">
@@ -2756,10 +2756,10 @@
         <v>19</v>
       </c>
       <c r="E27" s="1">
-        <v>8550</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>5700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
@@ -2776,10 +2776,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1">
@@ -2796,10 +2796,10 @@
         <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1">
@@ -2816,10 +2816,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1">
@@ -2836,10 +2836,10 @@
         <v>17</v>
       </c>
       <c r="E31" s="1">
-        <v>7650</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>5100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1">
@@ -2856,10 +2856,10 @@
         <v>27</v>
       </c>
       <c r="E32" s="1">
-        <v>12150</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1">
@@ -2876,10 +2876,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="1">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1">
@@ -2896,10 +2896,10 @@
         <v>18</v>
       </c>
       <c r="E34" s="1">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1">
@@ -2916,10 +2916,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1">
@@ -2936,10 +2936,10 @@
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1">
@@ -2956,10 +2956,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1">
@@ -2976,10 +2976,10 @@
         <v>11</v>
       </c>
       <c r="E38" s="1">
-        <v>4950</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>3300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1">
@@ -2996,10 +2996,10 @@
         <v>12</v>
       </c>
       <c r="E39" s="1">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1">
@@ -3016,10 +3016,10 @@
         <v>14</v>
       </c>
       <c r="E40" s="1">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>4200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1">
@@ -3036,10 +3036,10 @@
         <v>16</v>
       </c>
       <c r="E41" s="1">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>4800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1">
@@ -3056,10 +3056,10 @@
         <v>18</v>
       </c>
       <c r="E42" s="1">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1">
@@ -3076,10 +3076,10 @@
         <v>13</v>
       </c>
       <c r="E43" s="1">
-        <v>5850</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>3900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1">
@@ -3096,10 +3096,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" customHeight="1">
@@ -3116,10 +3116,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1">
@@ -3136,10 +3136,10 @@
         <v>8</v>
       </c>
       <c r="E46" s="1">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>2400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1">
@@ -3156,10 +3156,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="1">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1">
@@ -3176,10 +3176,10 @@
         <v>25</v>
       </c>
       <c r="E48" s="1">
-        <v>11250</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75" customHeight="1">
@@ -3196,10 +3196,10 @@
         <v>6</v>
       </c>
       <c r="E49" s="1">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18.75" customHeight="1">
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3256,10 +3256,10 @@
         <v>12</v>
       </c>
       <c r="E52" s="1">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18.75" customHeight="1">
@@ -3276,10 +3276,10 @@
         <v>19</v>
       </c>
       <c r="E53" s="1">
-        <v>8550</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>5700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18.75" customHeight="1">
@@ -3296,10 +3296,10 @@
         <v>26</v>
       </c>
       <c r="E54" s="1">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>7800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18.75" customHeight="1">
@@ -3316,10 +3316,10 @@
         <v>12</v>
       </c>
       <c r="E55" s="1">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18.75" customHeight="1">
@@ -3336,10 +3336,10 @@
         <v>6</v>
       </c>
       <c r="E56" s="1">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18.75" customHeight="1">
@@ -3356,10 +3356,10 @@
         <v>18</v>
       </c>
       <c r="E57" s="1">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18.75" customHeight="1">
@@ -3376,10 +3376,10 @@
         <v>3</v>
       </c>
       <c r="E58" s="1">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="18.75" customHeight="1">
@@ -3396,10 +3396,10 @@
         <v>19</v>
       </c>
       <c r="E59" s="1">
-        <v>8550</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>5700</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
